--- a/cell_ontology.xlsx
+++ b/cell_ontology.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/research_studies/20190920_IMMUCan_Public_data/scRNAseq_database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/glanl/scripts/IMMUcan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72556C7-7AA6-C245-8143-DB3F9682DDB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0CA2B8-129B-5E41-B131-1140DA8F3D67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15240" yWindow="1540" windowWidth="10000" windowHeight="17440" xr2:uid="{A8197712-6533-6046-8522-AE9D984D0722}"/>
+    <workbookView xWindow="7080" yWindow="5840" windowWidth="10000" windowHeight="17440" xr2:uid="{A8197712-6533-6046-8522-AE9D984D0722}"/>
   </bookViews>
   <sheets>
     <sheet name="Cell ontology ID" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="132">
   <si>
     <t>cell_ontology</t>
   </si>
@@ -418,6 +418,18 @@
   </si>
   <si>
     <t>CL:0000909</t>
+  </si>
+  <si>
+    <t>B cycling</t>
+  </si>
+  <si>
+    <t>Bcycl</t>
+  </si>
+  <si>
+    <t>T reg act</t>
+  </si>
+  <si>
+    <t>T4ra</t>
   </si>
 </sst>
 </file>
@@ -808,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B831C5C1-0FAA-3B42-B71B-4385A97223DD}">
-  <dimension ref="A1:AA1011"/>
+  <dimension ref="A1:AA1013"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1067,22 +1079,22 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>104</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -1108,13 +1120,13 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -1123,7 +1135,7 @@
         <v>104</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -1149,22 +1161,22 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1190,13 +1202,13 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
@@ -1205,7 +1217,7 @@
         <v>106</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1231,22 +1243,22 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>106</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1272,22 +1284,22 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>106</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1313,13 +1325,13 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>41</v>
+        <v>110</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
@@ -1328,7 +1340,7 @@
         <v>106</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1354,13 +1366,13 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>44</v>
+        <v>111</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
@@ -1369,7 +1381,7 @@
         <v>106</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1395,22 +1407,22 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>119</v>
+        <v>107</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1436,22 +1448,22 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>92</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1477,22 +1489,22 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1518,22 +1530,22 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -1559,22 +1571,22 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" t="s">
-        <v>73</v>
+        <v>12</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1600,22 +1612,22 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1641,22 +1653,22 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
         <v>73</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>93</v>
+        <v>73</v>
+      </c>
+      <c r="F21" t="s">
+        <v>73</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1682,13 +1694,13 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D22" t="s">
         <v>73</v>
@@ -1696,8 +1708,8 @@
       <c r="E22" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>94</v>
+      <c r="F22" t="s">
+        <v>45</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1723,13 +1735,13 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
         <v>73</v>
@@ -1738,7 +1750,7 @@
         <v>45</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1764,22 +1776,22 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D24" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>74</v>
+      <c r="E24" t="s">
+        <v>45</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -1805,22 +1817,22 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="D25" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>75</v>
+      <c r="E25" t="s">
+        <v>45</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -1846,22 +1858,22 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D26" t="s">
         <v>73</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -1887,22 +1899,22 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D27" t="s">
         <v>73</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -1928,22 +1940,22 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>73</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -1969,22 +1981,22 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
         <v>73</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -2010,13 +2022,13 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="D30" t="s">
         <v>73</v>
@@ -2025,7 +2037,7 @@
         <v>78</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -2051,22 +2063,22 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="D31" t="s">
         <v>73</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -2092,22 +2104,22 @@
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>79</v>
+        <v>101</v>
+      </c>
+      <c r="D32" t="s">
+        <v>73</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -2133,22 +2145,22 @@
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>80</v>
+        <v>102</v>
+      </c>
+      <c r="D33" t="s">
+        <v>73</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -2174,22 +2186,22 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -2215,22 +2227,22 @@
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -2256,22 +2268,22 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -2297,22 +2309,22 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -2338,22 +2350,22 @@
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -2379,22 +2391,22 @@
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -2420,22 +2432,22 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -2461,22 +2473,22 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -2502,22 +2514,22 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -2543,22 +2555,22 @@
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -2584,22 +2596,22 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -2624,6 +2636,24 @@
       <c r="AA44" s="2"/>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -2647,9 +2677,24 @@
       <c r="AA45" s="2"/>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+      <c r="A46" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -2673,9 +2718,6 @@
       <c r="AA46" s="2"/>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
@@ -2829,7 +2871,7 @@
       <c r="AA52" s="2"/>
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A53" s="3"/>
+      <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="G53" s="2"/>
@@ -2881,7 +2923,7 @@
       <c r="AA54" s="2"/>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A55" s="2"/>
+      <c r="A55" s="3"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="G55" s="2"/>
@@ -27762,6 +27804,58 @@
       <c r="Z1011" s="2"/>
       <c r="AA1011" s="2"/>
     </row>
+    <row r="1012" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A1012" s="2"/>
+      <c r="B1012" s="2"/>
+      <c r="C1012" s="2"/>
+      <c r="G1012" s="2"/>
+      <c r="H1012" s="2"/>
+      <c r="I1012" s="2"/>
+      <c r="J1012" s="2"/>
+      <c r="K1012" s="2"/>
+      <c r="L1012" s="2"/>
+      <c r="M1012" s="2"/>
+      <c r="N1012" s="2"/>
+      <c r="O1012" s="2"/>
+      <c r="P1012" s="2"/>
+      <c r="Q1012" s="2"/>
+      <c r="R1012" s="2"/>
+      <c r="S1012" s="2"/>
+      <c r="T1012" s="2"/>
+      <c r="U1012" s="2"/>
+      <c r="V1012" s="2"/>
+      <c r="W1012" s="2"/>
+      <c r="X1012" s="2"/>
+      <c r="Y1012" s="2"/>
+      <c r="Z1012" s="2"/>
+      <c r="AA1012" s="2"/>
+    </row>
+    <row r="1013" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A1013" s="2"/>
+      <c r="B1013" s="2"/>
+      <c r="C1013" s="2"/>
+      <c r="G1013" s="2"/>
+      <c r="H1013" s="2"/>
+      <c r="I1013" s="2"/>
+      <c r="J1013" s="2"/>
+      <c r="K1013" s="2"/>
+      <c r="L1013" s="2"/>
+      <c r="M1013" s="2"/>
+      <c r="N1013" s="2"/>
+      <c r="O1013" s="2"/>
+      <c r="P1013" s="2"/>
+      <c r="Q1013" s="2"/>
+      <c r="R1013" s="2"/>
+      <c r="S1013" s="2"/>
+      <c r="T1013" s="2"/>
+      <c r="U1013" s="2"/>
+      <c r="V1013" s="2"/>
+      <c r="W1013" s="2"/>
+      <c r="X1013" s="2"/>
+      <c r="Y1013" s="2"/>
+      <c r="Z1013" s="2"/>
+      <c r="AA1013" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cell_ontology.xlsx
+++ b/cell_ontology.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/glanl/scripts/IMMUcan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0CA2B8-129B-5E41-B131-1140DA8F3D67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AAC6EE-D456-DA4A-B793-863893F61290}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7080" yWindow="5840" windowWidth="10000" windowHeight="17440" xr2:uid="{A8197712-6533-6046-8522-AE9D984D0722}"/>
   </bookViews>
@@ -408,9 +408,6 @@
     <t>annotation_minor</t>
   </si>
   <si>
-    <t>Tx</t>
-  </si>
-  <si>
     <t>T mem</t>
   </si>
   <si>
@@ -430,6 +427,9 @@
   </si>
   <si>
     <t>T4ra</t>
+  </si>
+  <si>
+    <t>T8x</t>
   </si>
 </sst>
 </file>
@@ -823,7 +823,7 @@
   <dimension ref="A1:AA1013"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1079,13 +1079,13 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>3</v>
@@ -1094,7 +1094,7 @@
         <v>104</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -1284,13 +1284,13 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>3</v>
@@ -1299,7 +1299,7 @@
         <v>106</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1369,7 +1369,7 @@
         <v>111</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>41</v>
@@ -1571,22 +1571,22 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C19" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>

--- a/cell_ontology.xlsx
+++ b/cell_ontology.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/glanl/scripts/IMMUcan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AAC6EE-D456-DA4A-B793-863893F61290}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A2C14B-B1CC-4644-AB3D-95A1A5FA533A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7080" yWindow="5840" windowWidth="10000" windowHeight="17440" xr2:uid="{A8197712-6533-6046-8522-AE9D984D0722}"/>
+    <workbookView xWindow="7080" yWindow="4160" windowWidth="10000" windowHeight="17440" xr2:uid="{A8197712-6533-6046-8522-AE9D984D0722}"/>
   </bookViews>
   <sheets>
     <sheet name="Cell ontology ID" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="135">
   <si>
     <t>cell_ontology</t>
   </si>
@@ -431,6 +431,15 @@
   <si>
     <t>T8x</t>
   </si>
+  <si>
+    <t>DC CLEC9A</t>
+  </si>
+  <si>
+    <t>dc9</t>
+  </si>
+  <si>
+    <t>DC9</t>
+  </si>
 </sst>
 </file>
 
@@ -820,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B831C5C1-0FAA-3B42-B71B-4385A97223DD}">
-  <dimension ref="A1:AA1013"/>
+  <dimension ref="A1:AA1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1858,22 +1867,22 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>73</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -1899,22 +1908,22 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D27" t="s">
         <v>73</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -1940,22 +1949,22 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D28" t="s">
         <v>73</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -1981,22 +1990,22 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>73</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -2022,22 +2031,22 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
         <v>73</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -2063,22 +2072,22 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s">
         <v>73</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -2104,22 +2113,22 @@
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="D32" t="s">
         <v>73</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -2145,13 +2154,13 @@
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" t="s">
         <v>73</v>
@@ -2160,7 +2169,7 @@
         <v>78</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -2186,22 +2195,22 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>79</v>
+        <v>102</v>
+      </c>
+      <c r="D34" t="s">
+        <v>73</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -2227,22 +2236,22 @@
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -2268,22 +2277,22 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -2309,22 +2318,22 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -2350,22 +2359,22 @@
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -2391,22 +2400,22 @@
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -2432,22 +2441,22 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -2473,22 +2482,22 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -2514,22 +2523,22 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -2555,22 +2564,22 @@
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -2596,22 +2605,22 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -2637,22 +2646,22 @@
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -2678,22 +2687,22 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -2718,6 +2727,24 @@
       <c r="AA46" s="2"/>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
@@ -2741,9 +2768,6 @@
       <c r="AA47" s="2"/>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
@@ -2923,7 +2947,7 @@
       <c r="AA54" s="2"/>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A55" s="3"/>
+      <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="G55" s="2"/>
@@ -2949,7 +2973,7 @@
       <c r="AA55" s="2"/>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
+      <c r="A56" s="3"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="G56" s="2"/>
@@ -27856,6 +27880,32 @@
       <c r="Z1013" s="2"/>
       <c r="AA1013" s="2"/>
     </row>
+    <row r="1014" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A1014" s="2"/>
+      <c r="B1014" s="2"/>
+      <c r="C1014" s="2"/>
+      <c r="G1014" s="2"/>
+      <c r="H1014" s="2"/>
+      <c r="I1014" s="2"/>
+      <c r="J1014" s="2"/>
+      <c r="K1014" s="2"/>
+      <c r="L1014" s="2"/>
+      <c r="M1014" s="2"/>
+      <c r="N1014" s="2"/>
+      <c r="O1014" s="2"/>
+      <c r="P1014" s="2"/>
+      <c r="Q1014" s="2"/>
+      <c r="R1014" s="2"/>
+      <c r="S1014" s="2"/>
+      <c r="T1014" s="2"/>
+      <c r="U1014" s="2"/>
+      <c r="V1014" s="2"/>
+      <c r="W1014" s="2"/>
+      <c r="X1014" s="2"/>
+      <c r="Y1014" s="2"/>
+      <c r="Z1014" s="2"/>
+      <c r="AA1014" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cell_ontology.xlsx
+++ b/cell_ontology.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/glanl/scripts/IMMUcan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A2C14B-B1CC-4644-AB3D-95A1A5FA533A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F51B9B7-509E-514B-82E8-E1BA727815FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7080" yWindow="4160" windowWidth="10000" windowHeight="17440" xr2:uid="{A8197712-6533-6046-8522-AE9D984D0722}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="137">
   <si>
     <t>cell_ontology</t>
   </si>
@@ -440,6 +440,12 @@
   <si>
     <t>DC9</t>
   </si>
+  <si>
+    <t>Plasma cycling</t>
+  </si>
+  <si>
+    <t>placycl</t>
+  </si>
 </sst>
 </file>
 
@@ -829,10 +835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B831C5C1-0FAA-3B42-B71B-4385A97223DD}">
-  <dimension ref="A1:AA1014"/>
+  <dimension ref="A1:AA1015"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1662,22 +1668,22 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1703,22 +1709,22 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D22" t="s">
         <v>73</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1744,13 +1750,13 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
         <v>73</v>
@@ -1758,8 +1764,8 @@
       <c r="E23" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>93</v>
+      <c r="F23" t="s">
+        <v>45</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1785,13 +1791,13 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
         <v>73</v>
@@ -1800,7 +1806,7 @@
         <v>45</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -1826,13 +1832,13 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="D25" t="s">
         <v>73</v>
@@ -1841,7 +1847,7 @@
         <v>45</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -1867,22 +1873,22 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" t="s">
         <v>45</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -1908,22 +1914,22 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>73</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -1949,22 +1955,22 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D28" t="s">
         <v>73</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -1990,22 +1996,22 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D29" t="s">
         <v>73</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -2031,22 +2037,22 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
         <v>73</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -2072,22 +2078,22 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31" t="s">
         <v>73</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -2113,22 +2119,22 @@
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="D32" t="s">
         <v>73</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -2154,22 +2160,22 @@
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="D33" t="s">
         <v>73</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -2195,13 +2201,13 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" t="s">
         <v>73</v>
@@ -2210,7 +2216,7 @@
         <v>78</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -2236,22 +2242,22 @@
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>79</v>
+        <v>102</v>
+      </c>
+      <c r="D35" t="s">
+        <v>73</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -2277,22 +2283,22 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -2318,22 +2324,22 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -2359,22 +2365,22 @@
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -2400,22 +2406,22 @@
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -2441,22 +2447,22 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -2482,22 +2488,22 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -2523,22 +2529,22 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -2564,22 +2570,22 @@
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -2605,22 +2611,22 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -2646,22 +2652,22 @@
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -2687,22 +2693,22 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -2728,22 +2734,22 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -2768,6 +2774,24 @@
       <c r="AA47" s="2"/>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
@@ -2791,9 +2815,6 @@
       <c r="AA48" s="2"/>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -2973,7 +2994,7 @@
       <c r="AA55" s="2"/>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A56" s="3"/>
+      <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="G56" s="2"/>
@@ -2999,7 +3020,7 @@
       <c r="AA56" s="2"/>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A57" s="2"/>
+      <c r="A57" s="3"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="G57" s="2"/>
@@ -27906,6 +27927,32 @@
       <c r="Z1014" s="2"/>
       <c r="AA1014" s="2"/>
     </row>
+    <row r="1015" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A1015" s="2"/>
+      <c r="B1015" s="2"/>
+      <c r="C1015" s="2"/>
+      <c r="G1015" s="2"/>
+      <c r="H1015" s="2"/>
+      <c r="I1015" s="2"/>
+      <c r="J1015" s="2"/>
+      <c r="K1015" s="2"/>
+      <c r="L1015" s="2"/>
+      <c r="M1015" s="2"/>
+      <c r="N1015" s="2"/>
+      <c r="O1015" s="2"/>
+      <c r="P1015" s="2"/>
+      <c r="Q1015" s="2"/>
+      <c r="R1015" s="2"/>
+      <c r="S1015" s="2"/>
+      <c r="T1015" s="2"/>
+      <c r="U1015" s="2"/>
+      <c r="V1015" s="2"/>
+      <c r="W1015" s="2"/>
+      <c r="X1015" s="2"/>
+      <c r="Y1015" s="2"/>
+      <c r="Z1015" s="2"/>
+      <c r="AA1015" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cell_ontology.xlsx
+++ b/cell_ontology.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/glanl/scripts/IMMUcan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F51B9B7-509E-514B-82E8-E1BA727815FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1527D4A-F2B7-5842-84FF-A8FF586E1825}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7080" yWindow="4160" windowWidth="10000" windowHeight="17440" xr2:uid="{A8197712-6533-6046-8522-AE9D984D0722}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="148">
   <si>
     <t>cell_ontology</t>
   </si>
@@ -446,6 +446,39 @@
   <si>
     <t>placycl</t>
   </si>
+  <si>
+    <t>NKT</t>
+  </si>
+  <si>
+    <t>CL:0000814</t>
+  </si>
+  <si>
+    <t>B naïve</t>
+  </si>
+  <si>
+    <t>Bn</t>
+  </si>
+  <si>
+    <t>CL:0000788</t>
+  </si>
+  <si>
+    <t>Bm</t>
+  </si>
+  <si>
+    <t>CL:0000787</t>
+  </si>
+  <si>
+    <t>B mem</t>
+  </si>
+  <si>
+    <t>B mem uns</t>
+  </si>
+  <si>
+    <t>Bmu</t>
+  </si>
+  <si>
+    <t>CL:0000970</t>
+  </si>
 </sst>
 </file>
 
@@ -835,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B831C5C1-0FAA-3B42-B71B-4385A97223DD}">
-  <dimension ref="A1:AA1015"/>
+  <dimension ref="A1:AA1019"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1545,22 +1578,22 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" t="s">
-        <v>12</v>
+        <v>138</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -1586,22 +1619,22 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>127</v>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1627,22 +1660,22 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" t="s">
-        <v>72</v>
+        <v>141</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1668,22 +1701,22 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D21" t="s">
-        <v>72</v>
+        <v>143</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1709,22 +1742,22 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" t="s">
-        <v>73</v>
+        <v>147</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1750,22 +1783,22 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>45</v>
+        <v>12</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1791,22 +1824,22 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>93</v>
+        <v>72</v>
+      </c>
+      <c r="F24" t="s">
+        <v>72</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -1832,22 +1865,22 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="D25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E25" t="s">
-        <v>45</v>
+        <v>72</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -1873,22 +1906,22 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="D26" t="s">
         <v>73</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>95</v>
+        <v>73</v>
+      </c>
+      <c r="F26" t="s">
+        <v>73</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -1914,22 +1947,22 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>132</v>
+      <c r="F27" t="s">
+        <v>45</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -1955,22 +1988,22 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D28" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>74</v>
+      <c r="E28" t="s">
+        <v>45</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -1996,22 +2029,22 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D29" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>75</v>
+      <c r="E29" t="s">
+        <v>45</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -2037,22 +2070,22 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="D30" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>76</v>
+      <c r="E30" t="s">
+        <v>45</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -2078,22 +2111,22 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>73</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -2119,22 +2152,22 @@
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D32" t="s">
         <v>73</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -2160,22 +2193,22 @@
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="D33" t="s">
         <v>73</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -2201,22 +2234,22 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="D34" t="s">
         <v>73</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -2242,22 +2275,22 @@
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="D35" t="s">
         <v>73</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -2283,22 +2316,22 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>79</v>
+        <v>28</v>
+      </c>
+      <c r="D36" t="s">
+        <v>73</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -2324,22 +2357,22 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>80</v>
+        <v>120</v>
+      </c>
+      <c r="D37" t="s">
+        <v>73</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -2365,22 +2398,22 @@
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>81</v>
+        <v>101</v>
+      </c>
+      <c r="D38" t="s">
+        <v>73</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -2406,22 +2439,22 @@
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>82</v>
+        <v>102</v>
+      </c>
+      <c r="D39" t="s">
+        <v>73</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -2447,22 +2480,22 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -2488,22 +2521,22 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -2529,22 +2562,22 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -2570,22 +2603,22 @@
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -2611,22 +2644,22 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -2652,22 +2685,22 @@
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -2693,22 +2726,22 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -2734,22 +2767,22 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -2775,22 +2808,22 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -2815,6 +2848,24 @@
       <c r="AA48" s="2"/>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -2838,9 +2889,24 @@
       <c r="AA49" s="2"/>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
+      <c r="A50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
@@ -2864,9 +2930,24 @@
       <c r="AA50" s="2"/>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
+      <c r="A51" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
@@ -2890,9 +2971,24 @@
       <c r="AA51" s="2"/>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
+      <c r="A52" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
@@ -2916,9 +3012,6 @@
       <c r="AA52" s="2"/>
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
@@ -3020,7 +3113,7 @@
       <c r="AA56" s="2"/>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A57" s="3"/>
+      <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="G57" s="2"/>
@@ -3124,7 +3217,7 @@
       <c r="AA60" s="2"/>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A61" s="2"/>
+      <c r="A61" s="3"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="G61" s="2"/>
@@ -27953,6 +28046,110 @@
       <c r="Z1015" s="2"/>
       <c r="AA1015" s="2"/>
     </row>
+    <row r="1016" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A1016" s="2"/>
+      <c r="B1016" s="2"/>
+      <c r="C1016" s="2"/>
+      <c r="G1016" s="2"/>
+      <c r="H1016" s="2"/>
+      <c r="I1016" s="2"/>
+      <c r="J1016" s="2"/>
+      <c r="K1016" s="2"/>
+      <c r="L1016" s="2"/>
+      <c r="M1016" s="2"/>
+      <c r="N1016" s="2"/>
+      <c r="O1016" s="2"/>
+      <c r="P1016" s="2"/>
+      <c r="Q1016" s="2"/>
+      <c r="R1016" s="2"/>
+      <c r="S1016" s="2"/>
+      <c r="T1016" s="2"/>
+      <c r="U1016" s="2"/>
+      <c r="V1016" s="2"/>
+      <c r="W1016" s="2"/>
+      <c r="X1016" s="2"/>
+      <c r="Y1016" s="2"/>
+      <c r="Z1016" s="2"/>
+      <c r="AA1016" s="2"/>
+    </row>
+    <row r="1017" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A1017" s="2"/>
+      <c r="B1017" s="2"/>
+      <c r="C1017" s="2"/>
+      <c r="G1017" s="2"/>
+      <c r="H1017" s="2"/>
+      <c r="I1017" s="2"/>
+      <c r="J1017" s="2"/>
+      <c r="K1017" s="2"/>
+      <c r="L1017" s="2"/>
+      <c r="M1017" s="2"/>
+      <c r="N1017" s="2"/>
+      <c r="O1017" s="2"/>
+      <c r="P1017" s="2"/>
+      <c r="Q1017" s="2"/>
+      <c r="R1017" s="2"/>
+      <c r="S1017" s="2"/>
+      <c r="T1017" s="2"/>
+      <c r="U1017" s="2"/>
+      <c r="V1017" s="2"/>
+      <c r="W1017" s="2"/>
+      <c r="X1017" s="2"/>
+      <c r="Y1017" s="2"/>
+      <c r="Z1017" s="2"/>
+      <c r="AA1017" s="2"/>
+    </row>
+    <row r="1018" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A1018" s="2"/>
+      <c r="B1018" s="2"/>
+      <c r="C1018" s="2"/>
+      <c r="G1018" s="2"/>
+      <c r="H1018" s="2"/>
+      <c r="I1018" s="2"/>
+      <c r="J1018" s="2"/>
+      <c r="K1018" s="2"/>
+      <c r="L1018" s="2"/>
+      <c r="M1018" s="2"/>
+      <c r="N1018" s="2"/>
+      <c r="O1018" s="2"/>
+      <c r="P1018" s="2"/>
+      <c r="Q1018" s="2"/>
+      <c r="R1018" s="2"/>
+      <c r="S1018" s="2"/>
+      <c r="T1018" s="2"/>
+      <c r="U1018" s="2"/>
+      <c r="V1018" s="2"/>
+      <c r="W1018" s="2"/>
+      <c r="X1018" s="2"/>
+      <c r="Y1018" s="2"/>
+      <c r="Z1018" s="2"/>
+      <c r="AA1018" s="2"/>
+    </row>
+    <row r="1019" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A1019" s="2"/>
+      <c r="B1019" s="2"/>
+      <c r="C1019" s="2"/>
+      <c r="G1019" s="2"/>
+      <c r="H1019" s="2"/>
+      <c r="I1019" s="2"/>
+      <c r="J1019" s="2"/>
+      <c r="K1019" s="2"/>
+      <c r="L1019" s="2"/>
+      <c r="M1019" s="2"/>
+      <c r="N1019" s="2"/>
+      <c r="O1019" s="2"/>
+      <c r="P1019" s="2"/>
+      <c r="Q1019" s="2"/>
+      <c r="R1019" s="2"/>
+      <c r="S1019" s="2"/>
+      <c r="T1019" s="2"/>
+      <c r="U1019" s="2"/>
+      <c r="V1019" s="2"/>
+      <c r="W1019" s="2"/>
+      <c r="X1019" s="2"/>
+      <c r="Y1019" s="2"/>
+      <c r="Z1019" s="2"/>
+      <c r="AA1019" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cell_ontology.xlsx
+++ b/cell_ontology.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/glanl/scripts/IMMUcan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1527D4A-F2B7-5842-84FF-A8FF586E1825}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B085F24A-44BA-BF4D-AE18-27DB138501A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7080" yWindow="4160" windowWidth="10000" windowHeight="17440" xr2:uid="{A8197712-6533-6046-8522-AE9D984D0722}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="153">
   <si>
     <t>cell_ontology</t>
   </si>
@@ -223,9 +223,6 @@
   </si>
   <si>
     <t>oligodendrocyte</t>
-  </si>
-  <si>
-    <t>Oli</t>
   </si>
   <si>
     <t>CL:0000128</t>
@@ -478,6 +475,24 @@
   </si>
   <si>
     <t>CL:0000970</t>
+  </si>
+  <si>
+    <t>T4x</t>
+  </si>
+  <si>
+    <t>Odc</t>
+  </si>
+  <si>
+    <t>T em</t>
+  </si>
+  <si>
+    <t>T8em</t>
+  </si>
+  <si>
+    <t>CL:0000913</t>
+  </si>
+  <si>
+    <t>T eff mem</t>
   </si>
 </sst>
 </file>
@@ -868,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B831C5C1-0FAA-3B42-B71B-4385A97223DD}">
-  <dimension ref="A1:AA1019"/>
+  <dimension ref="A1:AA1021"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -890,13 +905,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" t="s">
         <v>121</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>122</v>
-      </c>
-      <c r="F1" t="s">
-        <v>123</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -963,7 +978,7 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -975,10 +990,10 @@
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -1004,10 +1019,10 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>37</v>
@@ -1016,10 +1031,10 @@
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -1045,10 +1060,10 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>38</v>
@@ -1057,10 +1072,10 @@
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -1086,10 +1101,10 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
@@ -1098,10 +1113,10 @@
         <v>3</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -1127,22 +1142,22 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -1168,10 +1183,10 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>42</v>
@@ -1180,10 +1195,10 @@
         <v>3</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -1209,10 +1224,10 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>43</v>
@@ -1221,10 +1236,10 @@
         <v>3</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1250,7 +1265,7 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>8</v>
@@ -1262,10 +1277,10 @@
         <v>3</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1291,10 +1306,10 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>39</v>
@@ -1303,10 +1318,10 @@
         <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1332,22 +1347,22 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1373,10 +1388,10 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>40</v>
@@ -1385,10 +1400,10 @@
         <v>3</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1414,22 +1429,22 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1455,22 +1470,22 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>44</v>
+        <v>110</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1496,22 +1511,22 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1537,22 +1552,22 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1578,22 +1593,22 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" t="s">
         <v>3</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -1619,22 +1634,22 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1660,22 +1675,22 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1701,22 +1716,22 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>144</v>
+      <c r="F21" t="s">
+        <v>12</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1742,13 +1757,13 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>12</v>
@@ -1757,7 +1772,7 @@
         <v>12</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1783,22 +1798,22 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1824,22 +1839,22 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" t="s">
-        <v>72</v>
+        <v>146</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -1865,22 +1880,22 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -1906,22 +1921,22 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -1947,22 +1962,22 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>46</v>
+        <v>135</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
-      </c>
-      <c r="E27" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" t="s">
-        <v>45</v>
+        <v>71</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -1988,22 +2003,22 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>93</v>
+        <v>72</v>
+      </c>
+      <c r="F28" t="s">
+        <v>72</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -2029,22 +2044,22 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E29" t="s">
         <v>45</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>94</v>
+      <c r="F29" t="s">
+        <v>45</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -2070,22 +2085,22 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E30" t="s">
         <v>45</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -2111,22 +2126,22 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" t="s">
         <v>45</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -2152,22 +2167,22 @@
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="D32" t="s">
-        <v>73</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
+      </c>
+      <c r="E32" t="s">
+        <v>45</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -2193,22 +2208,22 @@
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" t="s">
-        <v>73</v>
+        <v>133</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -2234,22 +2249,22 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F34" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -2275,22 +2290,22 @@
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -2316,22 +2331,22 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -2357,22 +2372,22 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="D37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -2398,22 +2413,22 @@
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="D38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -2439,22 +2454,22 @@
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="D39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -2480,22 +2495,22 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>79</v>
+        <v>100</v>
+      </c>
+      <c r="D40" t="s">
+        <v>72</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -2521,22 +2536,22 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>80</v>
+        <v>101</v>
+      </c>
+      <c r="D41" t="s">
+        <v>72</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -2562,22 +2577,22 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -2603,22 +2618,22 @@
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -2644,22 +2659,22 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -2685,22 +2700,22 @@
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -2726,22 +2741,22 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -2767,22 +2782,22 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -2808,22 +2823,22 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -2849,22 +2864,22 @@
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -2890,22 +2905,22 @@
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -2931,22 +2946,22 @@
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -2972,22 +2987,22 @@
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -3012,6 +3027,24 @@
       <c r="AA52" s="2"/>
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
@@ -3035,9 +3068,24 @@
       <c r="AA53" s="2"/>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
+      <c r="A54" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
@@ -3061,9 +3109,6 @@
       <c r="AA54" s="2"/>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
@@ -3217,7 +3262,7 @@
       <c r="AA60" s="2"/>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A61" s="3"/>
+      <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="G61" s="2"/>
@@ -3269,7 +3314,7 @@
       <c r="AA62" s="2"/>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A63" s="2"/>
+      <c r="A63" s="3"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="G63" s="2"/>
@@ -28150,6 +28195,58 @@
       <c r="Z1019" s="2"/>
       <c r="AA1019" s="2"/>
     </row>
+    <row r="1020" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A1020" s="2"/>
+      <c r="B1020" s="2"/>
+      <c r="C1020" s="2"/>
+      <c r="G1020" s="2"/>
+      <c r="H1020" s="2"/>
+      <c r="I1020" s="2"/>
+      <c r="J1020" s="2"/>
+      <c r="K1020" s="2"/>
+      <c r="L1020" s="2"/>
+      <c r="M1020" s="2"/>
+      <c r="N1020" s="2"/>
+      <c r="O1020" s="2"/>
+      <c r="P1020" s="2"/>
+      <c r="Q1020" s="2"/>
+      <c r="R1020" s="2"/>
+      <c r="S1020" s="2"/>
+      <c r="T1020" s="2"/>
+      <c r="U1020" s="2"/>
+      <c r="V1020" s="2"/>
+      <c r="W1020" s="2"/>
+      <c r="X1020" s="2"/>
+      <c r="Y1020" s="2"/>
+      <c r="Z1020" s="2"/>
+      <c r="AA1020" s="2"/>
+    </row>
+    <row r="1021" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A1021" s="2"/>
+      <c r="B1021" s="2"/>
+      <c r="C1021" s="2"/>
+      <c r="G1021" s="2"/>
+      <c r="H1021" s="2"/>
+      <c r="I1021" s="2"/>
+      <c r="J1021" s="2"/>
+      <c r="K1021" s="2"/>
+      <c r="L1021" s="2"/>
+      <c r="M1021" s="2"/>
+      <c r="N1021" s="2"/>
+      <c r="O1021" s="2"/>
+      <c r="P1021" s="2"/>
+      <c r="Q1021" s="2"/>
+      <c r="R1021" s="2"/>
+      <c r="S1021" s="2"/>
+      <c r="T1021" s="2"/>
+      <c r="U1021" s="2"/>
+      <c r="V1021" s="2"/>
+      <c r="W1021" s="2"/>
+      <c r="X1021" s="2"/>
+      <c r="Y1021" s="2"/>
+      <c r="Z1021" s="2"/>
+      <c r="AA1021" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28174,13 +28271,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" t="s">
         <v>115</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>116</v>
-      </c>
-      <c r="D1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -28199,170 +28296,170 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -28395,30 +28492,30 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -28426,7 +28523,7 @@
         <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
         <v>45</v>
@@ -28437,268 +28534,268 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
         <v>45</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
         <v>45</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
         <v>45</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="D23" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">

--- a/cell_ontology.xlsx
+++ b/cell_ontology.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
   <si>
     <t xml:space="preserve">cell_ontology</t>
   </si>
@@ -119,6 +119,9 @@
     <t xml:space="preserve">CL:0000909</t>
   </si>
   <si>
+    <t xml:space="preserve">T CD8 mem</t>
+  </si>
+  <si>
     <t xml:space="preserve">T eff</t>
   </si>
   <si>
@@ -128,6 +131,9 @@
     <t xml:space="preserve">CL:0001050</t>
   </si>
   <si>
+    <t xml:space="preserve">T CD8 eff</t>
+  </si>
+  <si>
     <t xml:space="preserve">T eff mem</t>
   </si>
   <si>
@@ -137,7 +143,7 @@
     <t xml:space="preserve">CL:0000913</t>
   </si>
   <si>
-    <t xml:space="preserve">T em</t>
+    <t xml:space="preserve">T CD8 em</t>
   </si>
   <si>
     <t xml:space="preserve">T ex</t>
@@ -149,9 +155,15 @@
     <t xml:space="preserve">NCIT:C120000</t>
   </si>
   <si>
+    <t xml:space="preserve">T CD8 ex</t>
+  </si>
+  <si>
     <t xml:space="preserve">T4x</t>
   </si>
   <si>
+    <t xml:space="preserve">T CD4 ex</t>
+  </si>
+  <si>
     <t xml:space="preserve">T MAIT</t>
   </si>
   <si>
@@ -474,6 +486,30 @@
   </si>
   <si>
     <t xml:space="preserve">Unassigned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T CD4 memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T4m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL:0000897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T CD4 mem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T CD4 effector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T4e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL:0001044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T CD4 eff</t>
   </si>
 </sst>
 </file>
@@ -1082,18 +1118,18 @@
         <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
@@ -1102,18 +1138,18 @@
         <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
@@ -1122,18 +1158,18 @@
         <v>26</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
@@ -1142,18 +1178,18 @@
         <v>26</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
@@ -1162,18 +1198,18 @@
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
@@ -1182,967 +1218,1047 @@
         <v>26</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F21" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D22" t="s">
         <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F22" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E23" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F23" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
         <v>59</v>
       </c>
-      <c r="D24" t="s">
-        <v>55</v>
-      </c>
       <c r="E24" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F25" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E27" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F27" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E28" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F28" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" t="s">
         <v>72</v>
       </c>
-      <c r="C29" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" t="s">
-        <v>68</v>
-      </c>
       <c r="E29" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F29" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D30" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E30" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F30" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" t="s">
         <v>77</v>
       </c>
-      <c r="D31" t="s">
-        <v>73</v>
-      </c>
       <c r="E31" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F31" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" t="s">
         <v>80</v>
       </c>
-      <c r="D32" t="s">
-        <v>73</v>
-      </c>
-      <c r="E32" t="s">
-        <v>76</v>
-      </c>
       <c r="F32" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D33" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E33" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F33" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D34" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E34" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F34" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D35" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E35" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F35" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C36" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D36" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E36" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F36" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B37" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C37" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D37" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E37" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F37" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D38" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E38" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F38" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B39" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C39" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D39" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E39" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F39" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E40" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F40" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C41" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D41" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E41" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F41" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C42" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D42" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E42" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F42" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B43" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C43" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D43" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E43" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F43" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B44" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C44" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D44" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E44" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F44" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B45" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C45" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D45" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E45" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F45" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B46" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C46" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D46" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E46" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F46" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B47" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C47" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E47" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F47" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B48" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C48" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D48" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E48" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F48" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B49" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C49" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D49" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E49" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F49" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B50" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C50" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D50" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E50" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F50" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B51" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C51" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D51" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E51" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F51" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B52" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C52" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D52" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E52" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F52" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B53" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C53" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D53" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E53" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F53" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B54" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C54" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D54" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E54" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F54" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B55" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C55" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D55" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E55" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F55" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B56" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C56" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D56" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E56" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F56" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B57" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C57" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D57" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E57" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F57" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B58" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C58" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D58" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E58" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F58" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B59" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C59" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D59" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E59" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F59" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B60" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C60" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D60" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E60" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F60" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B61" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C61" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D61" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E61" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F61" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B62" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C62" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D62" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E62" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F62" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B63" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C63" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D63" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E63" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F63" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B64" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C64" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D64" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E64" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F64" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B65" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C65" t="s">
+        <v>84</v>
+      </c>
+      <c r="D65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E65" t="s">
         <v>80</v>
       </c>
-      <c r="D65" t="s">
-        <v>73</v>
-      </c>
-      <c r="E65" t="s">
-        <v>76</v>
-      </c>
       <c r="F65" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B66" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C66" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D66" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E66" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F66" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C67" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D67" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E67" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F67" t="s">
-        <v>68</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>139</v>
+      </c>
+      <c r="B68" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68" t="s">
+        <v>141</v>
+      </c>
+      <c r="D68" t="s">
+        <v>139</v>
+      </c>
+      <c r="E68" t="s">
+        <v>139</v>
+      </c>
+      <c r="F68" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>158</v>
+      </c>
+      <c r="B69" t="s">
+        <v>159</v>
+      </c>
+      <c r="C69" t="s">
+        <v>160</v>
+      </c>
+      <c r="D69" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>162</v>
+      </c>
+      <c r="B70" t="s">
+        <v>163</v>
+      </c>
+      <c r="C70" t="s">
+        <v>164</v>
+      </c>
+      <c r="D70" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B71" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/cell_ontology.xlsx
+++ b/cell_ontology.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
   <si>
     <t xml:space="preserve">cell_ontology</t>
   </si>
@@ -510,6 +510,15 @@
   </si>
   <si>
     <t xml:space="preserve">T CD4 eff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cycling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cycl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cycling</t>
   </si>
 </sst>
 </file>
@@ -2261,6 +2270,26 @@
         <v>17</v>
       </c>
     </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>166</v>
+      </c>
+      <c r="B72" t="s">
+        <v>167</v>
+      </c>
+      <c r="C72" t="s">
+        <v>168</v>
+      </c>
+      <c r="D72" t="s">
+        <v>168</v>
+      </c>
+      <c r="E72" t="s">
+        <v>168</v>
+      </c>
+      <c r="F72" t="s">
+        <v>168</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/cell_ontology.xlsx
+++ b/cell_ontology.xlsx
@@ -848,7 +848,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
